--- a/Book4.xlsx
+++ b/Book4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://londonbusinessschool1000-my.sharepoint.com/personal/sunnyw_london_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{499A808E-7734-47A8-93D5-349E29947257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{499A808E-7734-47A8-93D5-349E29947257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03AFB4B6-9C4C-4AD8-9FC0-3329606D370A}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="300" windowWidth="19180" windowHeight="11260" xr2:uid="{86BFF0F8-EA04-4B0D-AF35-49843C2CD616}"/>
+    <workbookView xWindow="2160" yWindow="420" windowWidth="16080" windowHeight="9370" xr2:uid="{86BFF0F8-EA04-4B0D-AF35-49843C2CD616}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t xml:space="preserve">原告宏正自動科技 </t>
   </si>
@@ -50,100 +50,49 @@
     <t>search term</t>
   </si>
   <si>
-    <t>data.aspx?ty=JD&amp;id=SLDV%2c97%2c%e6%99%ba%2c6%2c20100924%2c4&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=TPAA%2c99%2c%e5%88%a4%2c1067%2c20101014%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=TPDV%2c94%2c%e6%99%ba%2c32%2c20101112%2c2&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=SLDV%2c97%2c%e6%99%ba%2c9%2c20101130%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=TYDV%2c94%2c%e6%99%ba%2c15%2c20101231%2c6&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=TPSV%2c100%2c%e5%8f%b0%e4%b8%8a%2c136%2c20110127&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=TPDV%2c99%2c%e8%a8%b4%2c1444%2c20110318%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=SLDV%2c99%2c%e8%a8%b4%2c1448%2c20110331%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=TPHM%2c100%2c%e4%ba%a4%e4%b8%8a%e6%98%93%2c19%2c20110426%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=TPDV%2c95%2c%e6%99%ba%e6%9b%b4(%e4%b8%80)%2c2%2c20120427%2c9&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=IPCV%2c100%2c%e6%b0%91%e5%b0%88%e4%b8%8a%2c2%2c20120531%2c3&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=IPCV%2c100%2c%e6%b0%91%e5%b0%88%e8%a8%b4%2c57%2c20130222%2c2&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=IPCV%2c100%2c%e6%b0%91%e5%b0%88%e4%b8%8a%2c12%2c20130327%2c2&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=SLDV%2c101%2c%e8%a8%b4%2c1535%2c20130617%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=TPAA%2c102%2c%e5%88%a4%2c561%2c20130905%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=TPSV%2c102%2c%e5%8f%b0%e4%b8%8a%2c1800%2c20130925&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=TPHV%2c102%2c%e4%b8%8a%e6%98%93%2c786%2c20131203%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=IPCA%2c102%2c%e8%a1%8c%e5%b0%88%e8%a8%b4%2c37%2c20131220%2c4&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=IPCV%2c101%2c%e6%b0%91%e5%b0%88%e4%b8%8a%2c21%2c20131220%2c7&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=TPAA%2c103%2c%e5%88%a4%2c32%2c20140117%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=TPHV%2c103%2c%e5%86%8d%e6%98%93%2c4%2c20140128%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=IPCV%2c101%2c%e6%b0%91%e5%b0%88%e4%b8%8a%2c46%2c20140220%2c3&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=TPHV%2c102%2c%e9%87%8d%e4%b8%8a%2c890%2c20140311%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=TPSV%2c103%2c%e5%8f%b0%e4%b8%8a%2c2341%2c20141107&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=IPCV%2c103%2c%e6%b0%91%e5%b0%88%e8%a8%b4%2c10%2c20150415%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=TPAA%2c104%2c%e5%88%a4%2c214%2c20150430%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=TPSV%2c104%2c%e5%8f%b0%e4%b8%8a%2c948%2c20150528&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=TPAA%2c104%2c%e5%88%a4%2c307%2c20150611%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=TPAA%2c104%2c%e5%88%a4%2c326%2c20150618%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=IPCV%2c104%2c%e6%b0%91%e5%85%ac%e8%a8%b4%2c1%2c20151130%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=IPCA%2c104%2c%e8%a1%8c%e5%b0%88%e6%9b%b4(%e4%b8%80)%2c2%2c20160128%2c2&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=IPCV%2c104%2c%e6%b0%91%e5%b0%88%e4%b8%8a%2c20%2c20160428%2c2&amp;ot=in</t>
+    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=SLDV%2c97%2c%e6%99%ba%2c6%2c20100924%2c4&amp;ot=in</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TPAA%2c99%2c%e5%88%a4%2c1067%2c20101014%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TPDV%2c94%2c%e6%99%ba%2c32%2c20101112%2c2&amp;ot=in</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=SLDV%2c97%2c%e6%99%ba%2c9%2c20101130%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TYDV%2c94%2c%e6%99%ba%2c15%2c20101231%2c6&amp;ot=in</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TPSV%2c100%2c%e5%8f%b0%e4%b8%8a%2c136%2c20110127&amp;ot=in</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TPDV%2c99%2c%e8%a8%b4%2c1444%2c20110318%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=SLDV%2c99%2c%e8%a8%b4%2c1448%2c20110331%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TPHM%2c100%2c%e4%ba%a4%e4%b8%8a%e6%98%93%2c19%2c20110426%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TPDV%2c95%2c%e6%99%ba%e6%9b%b4(%e4%b8%80)%2c2%2c20120427%2c9&amp;ot=in</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=IPCV%2c100%2c%e6%b0%91%e5%b0%88%e4%b8%8a%2c2%2c20120531%2c3&amp;ot=in</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=IPCV%2c100%2c%e6%b0%91%e5%b0%88%e8%a8%b4%2c57%2c20130222%2c2&amp;ot=in</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=IPCV%2c100%2c%e6%b0%91%e5%b0%88%e4%b8%8a%2c12%2c20130327%2c2&amp;ot=in</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=SLDV%2c101%2c%e8%a8%b4%2c1535%2c20130617%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TPAA%2c102%2c%e5%88%a4%2c561%2c20130905%2c1&amp;ot=in</t>
   </si>
 </sst>
 </file>
@@ -195,10 +144,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -534,279 +487,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C64484C-14BC-44ED-925A-D803F82E4038}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="C2" sqref="C2:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>32</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
-        <v>35</v>
-      </c>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=SLDV%2c97%2c%e6%99%ba%2c6%2c20100924%2c4&amp;ot=in" xr:uid="{81959BC3-B9F9-4469-8DFF-B132E900C4DD}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Book4.xlsx
+++ b/Book4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://londonbusinessschool1000-my.sharepoint.com/personal/sunnyw_london_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{499A808E-7734-47A8-93D5-349E29947257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03AFB4B6-9C4C-4AD8-9FC0-3329606D370A}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{499A808E-7734-47A8-93D5-349E29947257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAAC2CA0-EA01-4061-87EF-DE086784D8F5}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="420" windowWidth="16080" windowHeight="9370" xr2:uid="{86BFF0F8-EA04-4B0D-AF35-49843C2CD616}"/>
+    <workbookView xWindow="2280" yWindow="2260" windowWidth="16000" windowHeight="9740" xr2:uid="{86BFF0F8-EA04-4B0D-AF35-49843C2CD616}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,49 +50,49 @@
     <t>search term</t>
   </si>
   <si>
-    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=SLDV%2c97%2c%e6%99%ba%2c6%2c20100924%2c4&amp;ot=in</t>
-  </si>
-  <si>
-    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TPAA%2c99%2c%e5%88%a4%2c1067%2c20101014%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TPDV%2c94%2c%e6%99%ba%2c32%2c20101112%2c2&amp;ot=in</t>
-  </si>
-  <si>
-    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=SLDV%2c97%2c%e6%99%ba%2c9%2c20101130%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TYDV%2c94%2c%e6%99%ba%2c15%2c20101231%2c6&amp;ot=in</t>
-  </si>
-  <si>
-    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TPSV%2c100%2c%e5%8f%b0%e4%b8%8a%2c136%2c20110127&amp;ot=in</t>
-  </si>
-  <si>
-    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TPDV%2c99%2c%e8%a8%b4%2c1444%2c20110318%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=SLDV%2c99%2c%e8%a8%b4%2c1448%2c20110331%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TPHM%2c100%2c%e4%ba%a4%e4%b8%8a%e6%98%93%2c19%2c20110426%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TPDV%2c95%2c%e6%99%ba%e6%9b%b4(%e4%b8%80)%2c2%2c20120427%2c9&amp;ot=in</t>
-  </si>
-  <si>
-    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=IPCV%2c100%2c%e6%b0%91%e5%b0%88%e4%b8%8a%2c2%2c20120531%2c3&amp;ot=in</t>
-  </si>
-  <si>
-    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=IPCV%2c100%2c%e6%b0%91%e5%b0%88%e8%a8%b4%2c57%2c20130222%2c2&amp;ot=in</t>
-  </si>
-  <si>
-    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=IPCV%2c100%2c%e6%b0%91%e5%b0%88%e4%b8%8a%2c12%2c20130327%2c2&amp;ot=in</t>
-  </si>
-  <si>
-    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=SLDV%2c101%2c%e8%a8%b4%2c1535%2c20130617%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TPAA%2c102%2c%e5%88%a4%2c561%2c20130905%2c1&amp;ot=in</t>
+    <t>data.aspx?ty=JD&amp;id=SLDV%2c97%2c%e6%99%ba%2c6%2c20100924%2c4&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TPAA%2c99%2c%e5%88%a4%2c1067%2c20101014%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TPDV%2c94%2c%e6%99%ba%2c32%2c20101112%2c2&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=SLDV%2c97%2c%e6%99%ba%2c9%2c20101130%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TYDV%2c94%2c%e6%99%ba%2c15%2c20101231%2c6&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TPSV%2c100%2c%e5%8f%b0%e4%b8%8a%2c136%2c20110127&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TPDV%2c99%2c%e8%a8%b4%2c1444%2c20110318%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=SLDV%2c99%2c%e8%a8%b4%2c1448%2c20110331%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TPHM%2c100%2c%e4%ba%a4%e4%b8%8a%e6%98%93%2c19%2c20110426%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TPDV%2c95%2c%e6%99%ba%e6%9b%b4(%e4%b8%80)%2c2%2c20120427%2c9&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=IPCV%2c100%2c%e6%b0%91%e5%b0%88%e4%b8%8a%2c2%2c20120531%2c3&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=IPCV%2c100%2c%e6%b0%91%e5%b0%88%e8%a8%b4%2c57%2c20130222%2c2&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=IPCV%2c100%2c%e6%b0%91%e5%b0%88%e4%b8%8a%2c12%2c20130327%2c2&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=SLDV%2c101%2c%e8%a8%b4%2c1535%2c20130617%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TPAA%2c102%2c%e5%88%a4%2c561%2c20130905%2c1&amp;ot=in</t>
   </si>
 </sst>
 </file>
@@ -144,14 +144,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -490,7 +486,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C16"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -501,128 +497,128 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="A13" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="A16" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" t="s">
         <v>18</v>
       </c>
     </row>
@@ -635,6 +631,9 @@
       <c r="B31" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=SLDV%2c97%2c%e6%99%ba%2c6%2c20100924%2c4&amp;ot=in" xr:uid="{D6A4FDD9-8C71-4D41-8F82-5B9529F09BEB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>